--- a/biology/Zoologie/Achatiniculture/Achatiniculture.xlsx
+++ b/biology/Zoologie/Achatiniculture/Achatiniculture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Élevage d'escargots géants
-L'achatiniculture ou élevage d'escargots géants désigne l'élevage d'escargots de la famille des Achatinidae (il s'agit d'une branche de l'héliciculture). Une personne qui pratique cette activité est un achatiniculteur. Les espèces élevées sont Archachatina degneri, A. marginata, Achatina achatina (en) et le fameux A. fulica[1]. L'achatiniculture a pour objet principal la production de viande à destination de l'alimentation humaine et porcine[2]. Ce mini-élevage se pratique surtout en Afrique de l'Ouest[3].
+L'achatiniculture ou élevage d'escargots géants désigne l'élevage d'escargots de la famille des Achatinidae (il s'agit d'une branche de l'héliciculture). Une personne qui pratique cette activité est un achatiniculteur. Les espèces élevées sont Archachatina degneri, A. marginata, Achatina achatina (en) et le fameux A. fulica. L'achatiniculture a pour objet principal la production de viande à destination de l'alimentation humaine et porcine. Ce mini-élevage se pratique surtout en Afrique de l'Ouest.
 </t>
         </is>
       </c>
